--- a/experiments/00_general/results/statistics/stats_cortisol_raw_weekend.xlsx
+++ b/experiments/00_general/results/statistics/stats_cortisol_raw_weekend.xlsx
@@ -182,52 +182,52 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>7.541e+20</t>
-  </si>
-  <si>
-    <t>7.402e+24</t>
-  </si>
-  <si>
-    <t>1.013e+17</t>
-  </si>
-  <si>
-    <t>2.657e+09</t>
-  </si>
-  <si>
-    <t>5.788e+10</t>
-  </si>
-  <si>
-    <t>1258.985</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.142</t>
-  </si>
-  <si>
-    <t>8120.352</t>
-  </si>
-  <si>
-    <t>1.549e+09</t>
-  </si>
-  <si>
-    <t>0.193</t>
+    <t>2.32e+21</t>
+  </si>
+  <si>
+    <t>4.067e+25</t>
+  </si>
+  <si>
+    <t>2.359e+17</t>
+  </si>
+  <si>
+    <t>3.177e+09</t>
+  </si>
+  <si>
+    <t>1.05e+11</t>
+  </si>
+  <si>
+    <t>1372.761</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>2.076e+04</t>
+  </si>
+  <si>
+    <t>5.4e+09</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t>0.198</t>
   </si>
   <si>
     <t>0.21</t>
   </si>
   <si>
-    <t>0.191</t>
-  </si>
-  <si>
-    <t>0.194</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>0.215</t>
+    <t>0.211</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -681,10 +681,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0.9514</v>
+        <v>0.9566</v>
       </c>
       <c r="D3">
-        <v>0.0002</v>
+        <v>0.0005</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0.9567</v>
+        <v>0.954</v>
       </c>
       <c r="D4">
-        <v>0.1121</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -713,10 +713,10 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>0.9667</v>
+        <v>0.9668</v>
       </c>
       <c r="D5">
-        <v>0.0038</v>
+        <v>0.0036</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>0.9764</v>
+        <v>0.9762999999999999</v>
       </c>
       <c r="D6">
-        <v>0.5266</v>
+        <v>0.4912</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>0.9692</v>
       </c>
       <c r="D7">
-        <v>0.0062</v>
+        <v>0.0059</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0.964</v>
+        <v>0.9643</v>
       </c>
       <c r="D8">
-        <v>0.2055</v>
+        <v>0.1881</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -777,10 +777,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>0.9616</v>
+        <v>0.9608</v>
       </c>
       <c r="D9">
-        <v>0.0014</v>
+        <v>0.0011</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>0.9625</v>
+        <v>0.9658</v>
       </c>
       <c r="D10">
-        <v>0.1817</v>
+        <v>0.2143</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>0.9308999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>0.946</v>
+        <v>0.9478</v>
       </c>
       <c r="D12">
-        <v>0.0465</v>
+        <v>0.0456</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -881,10 +881,10 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>4.5907</v>
+        <v>4.7792</v>
       </c>
       <c r="D3">
-        <v>0.0336</v>
+        <v>0.0302</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>4.3354</v>
+        <v>3.9715</v>
       </c>
       <c r="D4">
-        <v>0.0389</v>
+        <v>0.0479</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>2.7823</v>
+        <v>2.9453</v>
       </c>
       <c r="D5">
-        <v>0.09719999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -932,10 +932,10 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>5.5659</v>
+        <v>5.3489</v>
       </c>
       <c r="D6">
-        <v>0.0195</v>
+        <v>0.022</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>2.4159</v>
+        <v>2.5608</v>
       </c>
       <c r="D7">
-        <v>0.122</v>
+        <v>0.1114</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1025,22 +1025,22 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2.4153</v>
+        <v>2.4713</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F3">
-        <v>2.4153</v>
+        <v>2.4713</v>
       </c>
       <c r="G3">
-        <v>0.0248</v>
+        <v>0.0257</v>
       </c>
       <c r="H3">
-        <v>0.8749</v>
+        <v>0.8729</v>
       </c>
       <c r="J3">
         <v>0.0002</v>
@@ -1054,19 +1054,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>4008.1461</v>
+        <v>4063.2874</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="F4">
-        <v>1002.0365</v>
+        <v>1015.8218</v>
       </c>
       <c r="G4">
-        <v>66.44119999999999</v>
+        <v>67.9883</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1075,16 +1075,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2883</v>
+        <v>0.2893</v>
       </c>
       <c r="K4">
-        <v>0.4905</v>
+        <v>0.4913</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0978</v>
+        <v>0.1004</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>38</v>
       </c>
       <c r="C5">
-        <v>20.7721</v>
+        <v>15.8148</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="F5">
-        <v>5.193</v>
+        <v>3.9537</v>
       </c>
       <c r="G5">
-        <v>0.3443</v>
+        <v>0.2646</v>
       </c>
       <c r="H5">
-        <v>0.848</v>
+        <v>0.9006999999999999</v>
       </c>
       <c r="J5">
-        <v>0.0021</v>
+        <v>0.0016</v>
       </c>
     </row>
   </sheetData>
@@ -1201,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-11.9104</v>
+        <v>-12.0498</v>
       </c>
       <c r="I3">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
         <v>53</v>
@@ -1216,7 +1216,7 @@
         <v>54</v>
       </c>
       <c r="M3">
-        <v>-0.8233</v>
+        <v>-0.8262</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1245,10 +1245,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-13.3572</v>
+        <v>-13.5737</v>
       </c>
       <c r="I4">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J4" t="s">
         <v>53</v>
@@ -1260,7 +1260,7 @@
         <v>55</v>
       </c>
       <c r="M4">
-        <v>-1.2209</v>
+        <v>-1.2263</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-10.4929</v>
+        <v>-10.6019</v>
       </c>
       <c r="I5">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J5" t="s">
         <v>53</v>
@@ -1304,7 +1304,7 @@
         <v>56</v>
       </c>
       <c r="M5">
-        <v>-1.0977</v>
+        <v>-1.097</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-7.5545</v>
+        <v>-7.5767</v>
       </c>
       <c r="I6">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
         <v>53</v>
@@ -1348,7 +1348,7 @@
         <v>57</v>
       </c>
       <c r="M6">
-        <v>-0.8323</v>
+        <v>-0.8264</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1377,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-8.1014</v>
+        <v>-8.192399999999999</v>
       </c>
       <c r="I7">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
         <v>53</v>
@@ -1392,7 +1392,7 @@
         <v>58</v>
       </c>
       <c r="M7">
-        <v>-0.4315</v>
+        <v>-0.4373</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-4.547</v>
+        <v>-4.5678</v>
       </c>
       <c r="I8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J8" t="s">
         <v>53</v>
@@ -1436,7 +1436,7 @@
         <v>59</v>
       </c>
       <c r="M8">
-        <v>-0.3599</v>
+        <v>-0.3596</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1465,22 +1465,22 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.9123</v>
+        <v>-0.8544</v>
       </c>
       <c r="I9">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
         <v>53</v>
       </c>
       <c r="K9">
-        <v>0.363</v>
+        <v>0.3941</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
       </c>
       <c r="M9">
-        <v>-0.0843</v>
+        <v>-0.0784</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1509,22 +1509,22 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1.0042</v>
+        <v>1.1264</v>
       </c>
       <c r="I10">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
         <v>53</v>
       </c>
       <c r="K10">
-        <v>0.3167</v>
+        <v>0.2616</v>
       </c>
       <c r="L10" t="s">
         <v>61</v>
       </c>
       <c r="M10">
-        <v>0.0498</v>
+        <v>0.0552</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1553,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4.9983</v>
+        <v>5.212</v>
       </c>
       <c r="I11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
         <v>53</v>
@@ -1568,7 +1568,7 @@
         <v>62</v>
       </c>
       <c r="M11">
-        <v>0.3229</v>
+        <v>0.3334</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>7.4568</v>
+        <v>7.6716</v>
       </c>
       <c r="I12">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J12" t="s">
         <v>53</v>
@@ -1612,7 +1612,7 @@
         <v>63</v>
       </c>
       <c r="M12">
-        <v>0.2611</v>
+        <v>0.2659</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1641,16 +1641,16 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.181</v>
+        <v>0.1835</v>
       </c>
       <c r="I13">
-        <v>93.4713</v>
+        <v>99.96510000000001</v>
       </c>
       <c r="J13" t="s">
         <v>53</v>
       </c>
       <c r="K13">
-        <v>0.8568</v>
+        <v>0.8548</v>
       </c>
       <c r="L13" t="s">
         <v>64</v>
@@ -1685,22 +1685,22 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>-0.4597</v>
+        <v>-0.075</v>
       </c>
       <c r="I14">
-        <v>94.7239</v>
+        <v>100.3238</v>
       </c>
       <c r="J14" t="s">
         <v>53</v>
       </c>
       <c r="K14">
-        <v>0.6468</v>
+        <v>0.9404</v>
       </c>
       <c r="L14" t="s">
         <v>65</v>
       </c>
       <c r="M14">
-        <v>-0.0708</v>
+        <v>-0.0114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1729,22 +1729,22 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>-0.0554</v>
+        <v>0.0156</v>
       </c>
       <c r="I15">
-        <v>97.3913</v>
+        <v>103.8146</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
       </c>
       <c r="K15">
-        <v>0.956</v>
+        <v>0.9875</v>
       </c>
       <c r="L15" t="s">
         <v>66</v>
       </c>
       <c r="M15">
-        <v>-0.008399999999999999</v>
+        <v>0.0023</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1773,22 +1773,22 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>-0.2055</v>
+        <v>-0.3483</v>
       </c>
       <c r="I16">
-        <v>100.174</v>
+        <v>107.3256</v>
       </c>
       <c r="J16" t="s">
         <v>53</v>
       </c>
       <c r="K16">
-        <v>0.8376</v>
+        <v>0.7282999999999999</v>
       </c>
       <c r="L16" t="s">
         <v>67</v>
       </c>
       <c r="M16">
-        <v>-0.0309</v>
+        <v>-0.0515</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1817,22 +1817,22 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0.6335</v>
+        <v>0.4972</v>
       </c>
       <c r="I17">
-        <v>103.2425</v>
+        <v>108.9776</v>
       </c>
       <c r="J17" t="s">
         <v>53</v>
       </c>
       <c r="K17">
-        <v>0.5278</v>
+        <v>0.62</v>
       </c>
       <c r="L17" t="s">
         <v>68</v>
       </c>
       <c r="M17">
-        <v>0.094</v>
+        <v>0.0731</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1861,22 +1861,22 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.5192</v>
+        <v>0.5132</v>
       </c>
       <c r="I18">
-        <v>89.61239999999999</v>
+        <v>96.6729</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
       </c>
       <c r="K18">
-        <v>0.6049</v>
+        <v>0.609</v>
       </c>
       <c r="L18" t="s">
         <v>69</v>
       </c>
       <c r="M18">
-        <v>0.0819</v>
+        <v>0.0794</v>
       </c>
       <c r="N18">
         <v>1</v>
